--- a/static_shared/candidatelist.xlsx
+++ b/static_shared/candidatelist.xlsx
@@ -37,13 +37,13 @@
     <t xml:space="preserve">Resume</t>
   </si>
   <si>
-    <t xml:space="preserve">Ankita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ankita@asa.in</t>
+    <t xml:space="preserve">firstname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lastname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email@amial.in</t>
   </si>
   <si>
     <t xml:space="preserve">43543453f4</t>
@@ -61,6 +61,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -82,6 +83,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,12 +157,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
@@ -198,7 +202,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="ankita@asa.in"/>
+    <hyperlink ref="C2" r:id="rId1" display="email@amial.in"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
